--- a/data/input/absenteeism_data_14.xlsx
+++ b/data/input/absenteeism_data_14.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42858</v>
+        <v>95290</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anthony Castro</t>
+          <t>Laura Barbosa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>6156.61</v>
+        <v>11434.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7108</v>
+        <v>6340</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luiz Otávio Silveira</t>
+          <t>Danilo Jesus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>7938.3</v>
+        <v>11539.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27514</v>
+        <v>27962</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luigi Cunha</t>
+          <t>Isadora da Mata</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,27 +552,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45092</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>11828.89</v>
+        <v>11486.89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>51805</v>
+        <v>75376</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kaique Azevedo</t>
+          <t>Elisa Carvalho</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,56 +581,56 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>8917.27</v>
+        <v>10313.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50734</v>
+        <v>9985</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Stella Nogueira</t>
+          <t>Luiz Gustavo Rodrigues</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45087</v>
+        <v>45093</v>
       </c>
       <c r="G6" t="n">
-        <v>3880.59</v>
+        <v>10797.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>31498</v>
+        <v>44274</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lucas Nunes</t>
+          <t>Dra. Júlia Ribeiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,56 +639,56 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45086</v>
       </c>
       <c r="G7" t="n">
-        <v>2736.26</v>
+        <v>5322.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5975</v>
+        <v>52539</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gabrielly Barros</t>
+          <t>Sarah Oliveira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45080</v>
       </c>
       <c r="G8" t="n">
-        <v>7203.93</v>
+        <v>9475.85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>30219</v>
+        <v>60648</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Theo Moraes</t>
+          <t>Srta. Sophia da Luz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>3750.1</v>
+        <v>10986.13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>41530</v>
+        <v>26197</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Juliana Ramos</t>
+          <t>Lorenzo Teixeira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>4756.81</v>
+        <v>11623.72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>81939</v>
+        <v>67535</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Luiz Felipe Almeida</t>
+          <t>Leandro Costela</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45102</v>
+        <v>45094</v>
       </c>
       <c r="G11" t="n">
-        <v>5926.82</v>
+        <v>4593.65</v>
       </c>
     </row>
   </sheetData>
